--- a/data/long_dif/P22-Edad-long_dif.xlsx
+++ b/data/long_dif/P22-Edad-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>24,19%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>31,58%</t>
+          <t>33,68%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>28,98%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30,65%</t>
+          <t>40,56%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>25,54%</t>
+          <t>30,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>31,12%</t>
+          <t>32,03%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>29,73%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>34,59%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>27,3%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>32,86%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>29,36%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>37,74%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,96; 29,75</t>
+          <t>16,68; 37,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,22; 42,11</t>
+          <t>23,94; 44,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,48; 41,48</t>
+          <t>17,7; 43,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,69; 39,6</t>
+          <t>26,23; 56,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,01; 32,76</t>
+          <t>22,73; 41,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,93; 37,4</t>
+          <t>23,95; 40,31</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21,39; 41,06</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>22,52; 48,99</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>21,41; 35,59</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>26,8; 40,0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>21,81; 37,62</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>26,82; 48,37</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>43,48%</t>
+          <t>41,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>41,07%</t>
+          <t>39,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>36,69%</t>
+          <t>39,41%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>35,81%</t>
+          <t>30,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>37,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>38,45%</t>
+          <t>34,79%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>37,83%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>38,14%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>39,18%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>37,1%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>38,6%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>33,88%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,38; 54,58</t>
+          <t>31,07; 52,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,68; 52,26</t>
+          <t>28,85; 49,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,37; 45,92</t>
+          <t>26,9; 54,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,71; 44,45</t>
+          <t>16,39; 45,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,28; 47,35</t>
+          <t>28,11; 46,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,79; 45,43</t>
+          <t>27,6; 44,7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>27,97; 49,68</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>24,93; 52,23</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>31,81; 45,77</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>30,98; 43,52</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>30,85; 48,52</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>25,37; 44,93</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>35,81%</t>
+          <t>34,62%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>32,74%</t>
+          <t>31,61%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>33,55%</t>
+          <t>29,36%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>34,31%</t>
+          <t>32,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>30,43%</t>
+          <t>33,18%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>32,44%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>27,28%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>33,52%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>30,05%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>32,03%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>28,38%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,37; 46,47</t>
+          <t>24,76; 45,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,41; 36,82</t>
+          <t>17,9; 37,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,54; 42,19</t>
+          <t>20,37; 45,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,84; 42,8</t>
+          <t>14,97; 49,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,69; 41,13</t>
+          <t>24,52; 41,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,63; 37,3</t>
+          <t>24,42; 41,57</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>23,82; 42,4</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>17,01; 39,54</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>26,97; 40,63</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>24,18; 36,48</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>24,23; 40,26</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>19,32; 39,74</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>27,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,58; 36,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,16; 26,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,86; 37,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,92; 27,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,46; 34,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,12; 25,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>42,96%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>54,6%</t>
+          <t>19,11%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>42,13%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>46,16%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>42,56%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>50,65%</t>
+          <t>21,52%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>31,63%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23,94%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>27,78%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20,24%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>24,98%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>25,5%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>33,56; 52,9</t>
+          <t>18,84; 37,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>44,25; 65,34</t>
+          <t>13,24; 26,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,67; 50,98</t>
+          <t>10,13; 28,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>38,53; 53,95</t>
+          <t>13,73; 45,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>36,27; 49,85</t>
+          <t>21,6; 37,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>45,07; 57,48</t>
+          <t>16,48; 28,95</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>24,25; 40,91</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16,41; 32,56</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>22,51; 34,06</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>15,92; 24,84</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>17,74; 31,99</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>17,25; 36,15</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>29,67%</t>
+          <t>42,74%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>54,81%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>29,37%</t>
+          <t>43,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>33,47%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>42,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>28,92%</t>
+          <t>46,11%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>37,81%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>39,23%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>42,71%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>50,74%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>40,85%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>36,29%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,88; 41,15</t>
+          <t>32,01; 52,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,97; 34,15</t>
+          <t>44,86; 65,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>21,27; 38,94</t>
+          <t>27,27; 57,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>25,7; 39,58</t>
+          <t>16,98; 62,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,15; 36,74</t>
+          <t>34,36; 51,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,4; 34,18</t>
+          <t>38,73; 53,04</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>29,57; 47,48</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>29,43; 49,48</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>35,53; 49,11</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>45,0; 57,77</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>31,26; 51,17</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>26,34; 50,2</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>29,93%</t>
+          <t>30,35%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>26,09%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>26,98%</t>
+          <t>37,14%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>33,53%</t>
+          <t>39,53%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>28,4%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,31%</t>
+          <t>32,37%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>30,56%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>36,83%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>29,52%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>29,02%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>34,17%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>38,21%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>21,44; 41,49</t>
+          <t>21,44; 44,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,94; 35,71</t>
+          <t>18,22; 34,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>20,8; 32,55</t>
+          <t>23,41; 61,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>28,44; 39,75</t>
+          <t>21,55; 60,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>23,42; 35,36</t>
+          <t>21,82; 37,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,87; 35,08</t>
+          <t>25,92; 39,22</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>22,42; 38,44</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>27,4; 47,47</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>23,06; 38,2</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>23,75; 35,02</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>25,8; 49,84</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>28,53; 51,58</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>36,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>48,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>41,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>40,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>39,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>44,51%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>28,48; 44,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>40,66; 57,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>34,57; 48,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>34,75; 46,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>33,74; 43,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>39,53; 49,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>33,63%</t>
+          <t>28,84%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>31,41%</t>
+          <t>33,53%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>26,2%</t>
+          <t>22,64%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>32,48%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>33,1%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>29,56%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>34,39%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>28,32%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>30,11%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>31,45%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>28,16%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>26,28; 41,47</t>
+          <t>20,81; 41,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,89; 32,49</t>
+          <t>20,0; 34,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>25,24; 38,1</t>
+          <t>25,3; 41,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>21,32; 30,9</t>
+          <t>15,19; 31,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>27,62; 37,33</t>
+          <t>22,16; 34,3</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>21,09; 29,87</t>
+          <t>27,47; 38,63</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>24,22; 36,1</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>25,7; 43,5</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>23,02; 35,31</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>25,81; 34,93</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>26,71; 36,75</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>22,18; 34,22</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>37,07%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>27,56%</t>
+          <t>48,33%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>27,62%</t>
+          <t>37,54%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>29,26%</t>
+          <t>51,03%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>26,49%</t>
+          <t>41,69%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>28,43%</t>
+          <t>40,72%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>41,16%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>34,2%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>39,48%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>44,44%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>39,43%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>43,13%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>19,66; 32,39</t>
+          <t>29,3; 46,22</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>22,16; 34,3</t>
+          <t>40,39; 56,58</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>22,02; 33,81</t>
+          <t>29,96; 47,91</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>24,11; 35,21</t>
+          <t>41,01; 61,84</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>22,53; 31,37</t>
+          <t>35,94; 47,95</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>24,49; 32,63</t>
+          <t>35,2; 47,31</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>35,43; 47,96</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>24,91; 43,93</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>34,44; 45,02</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>39,65; 49,39</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>34,83; 44,7</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>36,14; 49,78</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>43,85%</t>
+          <t>34,09%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>49,15%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>28,93%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>42,97%</t>
+          <t>26,33%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>39,37%</t>
+          <t>30,47%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>45,98%</t>
+          <t>26,17%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>29,28%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>31,41%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>32,2%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>25,45%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>29,12%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>28,71%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>36,28; 51,27</t>
+          <t>26,02; 41,66</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>41,98; 56,42</t>
+          <t>18,11; 33,29</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>29,08; 41,78</t>
+          <t>22,06; 37,35</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>37,21; 48,43</t>
+          <t>18,37; 36,37</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>34,57; 44,08</t>
+          <t>24,57; 37,01</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>41,51; 50,49</t>
+          <t>21,55; 31,93</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>23,97; 36,01</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>23,09; 41,24</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>27,2; 37,21</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>20,88; 29,89</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>24,33; 34,24</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>22,55; 35,76</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>30,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>37,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>27,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>34,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,74 +2228,134 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>24,01; 40,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>18,16; 28,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>31,2; 44,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>22,71; 33,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>29,7; 39,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>21,96; 29,58</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>26,13%</t>
+          <t>24,35%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>30,41%</t>
+          <t>26,47%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>30,94%</t>
+          <t>28,67%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>33,99%</t>
+          <t>25,75%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>27,65%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>32,21%</t>
+          <t>29,5%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>27,6%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>31,36%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>26,05%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>28,02%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>28,13%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>28,42%</t>
         </is>
       </c>
     </row>
@@ -1567,32 +2368,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>19,06; 34,31</t>
+          <t>18,11; 30,73</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>23,95; 36,88</t>
+          <t>20,72; 31,82</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>23,77; 38,59</t>
+          <t>21,52; 35,81</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>27,31; 40,25</t>
+          <t>18,33; 36,8</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>23,18; 33,84</t>
+          <t>21,86; 33,28</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>27,74; 36,79</t>
+          <t>24,42; 35,32</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>21,59; 33,37</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>24,06; 40,37</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>22,01; 30,47</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>24,24; 32,05</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>23,28; 33,37</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>22,32; 34,31</t>
         </is>
       </c>
     </row>
@@ -1600,37 +2431,67 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>38,49%</t>
+          <t>44,74%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>42,23%</t>
+          <t>50,14%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>34,69%</t>
+          <t>43,27%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>33,91%</t>
+          <t>39,34%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>36,65%</t>
+          <t>34,04%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>38,04%</t>
+          <t>42,58%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>35,92%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>36,54%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>39,22%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>46,26%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>39,57%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>38,01%</t>
         </is>
       </c>
     </row>
@@ -1643,32 +2504,62 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>30,6; 47,25</t>
+          <t>36,87; 52,04</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>35,48; 49,48</t>
+          <t>43,86; 56,9</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>27,09; 43,23</t>
+          <t>34,55; 53,49</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>27,81; 40,9</t>
+          <t>28,44; 49,2</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>30,58; 42,29</t>
+          <t>28,39; 40,26</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>33,15; 43,13</t>
+          <t>37,49; 48,24</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>29,55; 42,5</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>28,45; 46,4</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>34,21; 44,07</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>41,77; 50,95</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>34,46; 46,07</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>31,22; 44,54</t>
         </is>
       </c>
     </row>
@@ -1676,37 +2567,67 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>30,91%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>23,39%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>34,37%</t>
+          <t>28,06%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>32,1%</t>
+          <t>34,91%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>34,89%</t>
+          <t>38,32%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>27,92%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>36,48%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>32,11%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>34,73%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>25,72%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>32,29%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>33,58%</t>
         </is>
       </c>
     </row>
@@ -1719,74 +2640,130 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>26,8; 45,29</t>
+          <t>23,97; 40,27</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>21,99; 34,15</t>
+          <t>18,06; 29,24</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>26,93; 42,26</t>
+          <t>20,99; 35,85</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>26,18; 39,31</t>
+          <t>25,21; 47,16</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>29,34; 40,91</t>
+          <t>32,63; 45,31</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>25,64; 34,69</t>
+          <t>23,05; 33,41</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>30,35; 43,45</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>23,15; 39,75</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>29,96; 40,0</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>21,88; 29,38</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>27,2; 37,47</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>27,21; 41,48</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>34,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>29,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>28,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>33,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>31,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>31,83%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1799,70 +2776,134 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>23,35; 52,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>22,56; 38,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>20,31; 37,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>25,56; 42,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>24,17; 41,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>25,97; 37,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>37,53%</t>
+          <t>26,33%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>45,92%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>35,28%</t>
+          <t>26,49%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>42,82%</t>
+          <t>37,24%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>36,26%</t>
+          <t>31,47%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>44,19%</t>
+          <t>34,67%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>25,2%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>35,26%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>28,83%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>32,56%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>25,84%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>36,22%</t>
         </is>
       </c>
     </row>
@@ -1875,32 +2916,62 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>26,14; 47,01</t>
+          <t>19,39; 33,32</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>37,26; 54,89</t>
+          <t>24,1; 37,4</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>26,55; 48,41</t>
+          <t>19,1; 36,61</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>34,8; 53,88</t>
+          <t>27,12; 47,86</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>29,18; 44,33</t>
+          <t>24,53; 39,26</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>38,19; 51,82</t>
+          <t>28,76; 41,6</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>18,04; 34,28</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>26,27; 44,33</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>23,37; 34,38</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>28,16; 37,04</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>20,2; 31,4</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>29,13; 43,22</t>
         </is>
       </c>
     </row>
@@ -1908,37 +2979,67 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>28,23%</t>
+          <t>39,2%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>24,28%</t>
+          <t>42,09%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>36,06%</t>
+          <t>42,35%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>38,87%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>32,66%</t>
+          <t>33,72%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>33,49%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>38,86%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>30,27%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>36,53%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>37,74%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>40,59%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>34,43%</t>
         </is>
       </c>
     </row>
@@ -1951,74 +3052,130 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>18,52; 37,84</t>
+          <t>31,56; 47,16</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>17,1; 34,53</t>
+          <t>34,77; 49,76</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>26,56; 45,66</t>
+          <t>33,44; 51,14</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>16,93; 31,08</t>
+          <t>29,33; 49,16</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>25,88; 39,58</t>
+          <t>26,7; 42,14</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>19,53; 30,22</t>
+          <t>26,81; 39,55</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>29,89; 49,07</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>22,18; 39,32</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>31,1; 42,09</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>33,09; 42,84</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>34,19; 47,7</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>27,79; 42,0</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>34,48%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>27,36%</t>
+          <t>27,52%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>31,16%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>23,89%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>28,0%</t>
+          <t>34,81%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>28,99%</t>
+          <t>31,84%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>35,94%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>34,47%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>34,64%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>29,7%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>33,57%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>29,35%</t>
         </is>
       </c>
     </row>
@@ -2031,32 +3188,62 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>23,98; 31,65</t>
+          <t>27,31; 43,91</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>24,38; 30,81</t>
+          <t>21,97; 33,45</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>25,73; 31,82</t>
+          <t>22,45; 39,8</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>27,75; 33,3</t>
+          <t>15,94; 33,89</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>25,95; 30,89</t>
+          <t>27,43; 43,02</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>26,91; 30,94</t>
+          <t>25,72; 38,96</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>28,11; 45,52</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>26,34; 43,81</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>29,34; 41,2</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>25,1; 34,0</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>27,19; 39,94</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>22,95; 36,2</t>
         </is>
       </c>
     </row>
@@ -2064,37 +3251,67 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>40,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>47,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>37,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>40,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>39,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>43,92%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2107,70 +3324,134 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>36,28; 44,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>43,6; 51,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>34,44; 41,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>37,52; 43,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>36,4; 41,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>41,52; 46,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>32,25%</t>
+          <t>32,82%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>30,16%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>33,67%</t>
+          <t>23,55%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>28,87%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>32,98%</t>
+          <t>29,04%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>34,92%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>24,53%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>18,09%</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>30,7%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>32,81%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>24,09%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>20,29%</t>
         </is>
       </c>
     </row>
@@ -2183,48 +3464,1041 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>28,73; 36,23</t>
+          <t>24,66; 47,53</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>22,32; 28,7</t>
+          <t>22,61; 39,07</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>30,49; 37,02</t>
+          <t>14,86; 35,47</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>26,37; 31,62</t>
+          <t>13,61; 33,6</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>30,33; 35,21</t>
+          <t>21,38; 38,06</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>25,16; 29,08</t>
+          <t>26,95; 43,84</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>17,13; 35,1</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>9,59; 32,63</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>24,66; 38,51</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>27,42; 38,87</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>18,22; 31,93</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>13,55; 28,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>39,12%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>45,27%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>51,15%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>43,44%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>34,3%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>40,95%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>43,8%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>44,56%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>36,41%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>42,86%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>47,1%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>44,07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>29,3; 48,46</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>36,12; 54,45</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>39,63; 63,1</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>30,44; 55,31</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>25,54; 43,62</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>32,6; 49,64</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>33,43; 55,58</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>30,79; 57,96</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>30,39; 43,8</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>36,33; 49,17</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>39,79; 55,83</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>34,49; 54,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>28,07%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>24,57%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>25,3%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>33,37%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>36,67%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>24,13%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>31,67%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>37,35%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>32,89%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>24,32%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>28,81%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>35,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>20,45; 38,04</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>17,47; 33,39</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>15,85; 35,44</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>22,49; 46,08</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>27,31; 47,06</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>17,48; 30,86</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>22,55; 42,3</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>25,93; 51,0</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>25,75; 39,93</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>19,39; 30,01</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>22,3; 35,95</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>26,46; 44,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>27,18%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>27,49%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>26,92%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>28,69%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>29,0%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>31,11%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>28,0%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>29,03%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>28,11%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>29,33%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>27,47%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>28,86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>23,76; 31,36</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>24,65; 30,57</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>22,89; 30,55</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>24,15; 33,44</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>26,15; 32,21</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>28,27; 33,73</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>25,01; 31,69</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>25,11; 33,1</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>25,75; 30,9</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>27,34; 31,67</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>25,11; 29,99</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>25,45; 31,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>40,7%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>47,09%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>42,68%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>40,05%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>37,27%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>40,01%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>39,39%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>37,4%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>38,94%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>43,49%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>41,0%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>38,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>36,69; 44,48</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>43,82; 51,05</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>38,12; 47,31</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>34,82; 45,95</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>34,3; 40,59</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>37,39; 43,14</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>35,84; 43,07</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>32,81; 41,78</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>36,47; 41,63</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>41,08; 45,91</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>37,97; 43,93</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>35,15; 42,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>32,12%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>25,42%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>30,4%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>31,26%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>33,72%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>28,88%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>32,62%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>33,57%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>32,94%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>27,18%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>31,53%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>32,41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>28,69; 36,11</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>22,49; 28,47</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>26,16; 37,31</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>26,72; 37,28</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>30,61; 37,17</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>26,22; 31,48</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>29,27; 36,29</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>29,75; 38,27</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>30,54; 35,31</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>25,15; 29,03</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>28,83; 34,91</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>29,41; 36,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P22-Edad-long_dif.xlsx
+++ b/data/long_dif/P22-Edad-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -788,7 +788,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -920,7 +920,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1188,7 +1188,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1588,7 +1588,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1720,7 +1720,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1988,7 +1988,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2120,7 +2120,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2388,7 +2388,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2520,7 +2520,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2788,7 +2788,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2920,7 +2920,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -3188,7 +3188,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -3320,7 +3320,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
